--- a/cmd/assmt-increase/templ/WESD_AssmtIncrease_.xlsx
+++ b/cmd/assmt-increase/templ/WESD_AssmtIncrease_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\git\millage-analysis\cmd\assmt-increase\templ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780EBFC2-B974-42D5-A9E0-2B81544FD265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF41D76-745E-4C74-88CC-F22F967ACB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="930" windowWidth="16440" windowHeight="13830" activeTab="1" xr2:uid="{3A8E5735-D356-442B-A169-57D197D12D25}"/>
+    <workbookView xWindow="33195" yWindow="1650" windowWidth="16440" windowHeight="13830" xr2:uid="{3A8E5735-D356-442B-A169-57D197D12D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B7A6D4-AAA2-4F91-9387-4BD3FA016104}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1078,8 @@
         <v>55</v>
       </c>
       <c r="B11" s="14">
-        <v>42028874.130000003</v>
+        <f>B8*B12 / 1000</f>
+        <v>0</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -1086,9 +1087,8 @@
       <c r="A12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="23" t="e">
-        <f>GrossTaxIncome * 1000 / TaxableRE</f>
-        <v>#DIV/0!</v>
+      <c r="B12" s="23">
+        <v>13.7996</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAEA6D3-3331-4C5C-81DE-D5694FE183C7}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1542,15 +1542,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="2946a673-d5a9-4cb6-8d2e-83faa8513315" xsi:nil="true"/>
@@ -1559,6 +1550,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1805,20 +1805,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25451019-4A9C-4BD8-8D97-2D3DE9F6310E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{909EC3A9-2385-459C-B3D5-20D29D5D9270}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2946a673-d5a9-4cb6-8d2e-83faa8513315"/>
     <ds:schemaRef ds:uri="f5e632d0-d242-45dd-ac9d-926d75bf6ed0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25451019-4A9C-4BD8-8D97-2D3DE9F6310E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
